--- a/BudgetMethodsFormat.xlsx
+++ b/BudgetMethodsFormat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Teaching\Public Finance\Slides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teaching\Public Finance\Slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F92AF2-D551-42FE-8F4D-2ACFECC75C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B57CB-307D-4A18-B2C4-9D528F3EF58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="16905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line Item Budget" sheetId="2" r:id="rId1"/>
@@ -278,7 +278,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -432,16 +432,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -450,28 +450,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -764,16 +764,16 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.69140625" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="25.7109375" style="1"/>
+    <col min="1" max="1" width="50.69140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="25.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -787,7 +787,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -801,7 +801,7 @@
         <v>47190</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -815,7 +815,7 @@
         <v>28600</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -829,7 +829,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,7 +843,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,7 +857,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -874,12 +874,12 @@
         <v>81900</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -896,7 +896,7 @@
         <v>Next Fiscal Year</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -910,7 +910,7 @@
         <v>33345</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -924,7 +924,7 @@
         <v>21255</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -938,7 +938,7 @@
         <v>13650</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
@@ -952,7 +952,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -966,7 +966,7 @@
         <v>2047.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -980,7 +980,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -994,7 +994,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>2047.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1026,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1043,13 +1042,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.69140625" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="75.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="25.7109375" style="1"/>
+    <col min="1" max="1" width="75.69140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="25.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
         <v>60</v>
       </c>
@@ -1059,13 +1058,13 @@
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>54</v>
       </c>
@@ -1094,7 +1093,7 @@
         <v>4731772.4000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>1861680</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1122,7 +1121,7 @@
         <v>4499125</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -1136,7 +1135,7 @@
         <v>592230</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1150,7 +1149,7 @@
         <v>871245</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
@@ -1167,12 +1166,12 @@
         <v>12556052.4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="24" t="s">
         <v>63</v>
       </c>
@@ -1180,7 +1179,7 @@
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>62</v>
       </c>
@@ -1194,7 +1193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>2876080</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
@@ -1223,7 +1222,7 @@
         <v>1364512.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>189715</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1251,7 +1250,7 @@
         <v>301465</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -1268,12 +1267,12 @@
         <v>4731772.4000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="24" t="s">
         <v>64</v>
       </c>
@@ -1281,7 +1280,7 @@
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="s">
         <v>65</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1310,7 +1309,7 @@
         <v>678405.79999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>274279</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -1340,7 +1339,7 @@
         <v>216354</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -1355,7 +1354,7 @@
         <v>195474.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
@@ -1370,12 +1369,12 @@
         <v>1364512.4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="24" t="s">
         <v>37</v>
       </c>
@@ -1385,7 +1384,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
         <v>36</v>
       </c>
@@ -1405,12 +1404,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,7 +1445,7 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -1465,7 +1464,7 @@
         <v>90600</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>117500</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>494250</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -1518,7 +1517,7 @@
         <v>24150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
@@ -1533,7 +1532,7 @@
         <v>22680</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -1548,7 +1547,7 @@
         <v>19425</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>18840</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>63196</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>20</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>922041</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -1638,7 +1637,7 @@
         <v>46102.05</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>322714.34999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>18</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>1290857.3999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>20825</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>38630</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -1794,7 +1793,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A19:D19"/>
